--- a/dad5_anaestesi_v100_export.xlsx
+++ b/dad5_anaestesi_v100_export.xlsx
@@ -493,372 +493,393 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>anesthesia_service</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Typen af anæstesi og start-/sluttidspunkt.</t>
+          <t>anesthesia_observation</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="D3" t="inlineStr">
         <is>
-          <t>DateTimeStart</t>
+          <t>OrganizationCode</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Start tidspunkt for anæstesi-ydelse</t>
+          <t>Type af observationssted (opvågningssted)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t xml:space="preserve">Enums/Udfald: | "centralt_observationsafsnit" | "andet_observationsafsnit" | "operationsgangen" | "intensiv" | "sengeafdeling" | "skadestue_modtagelse" | </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="D4" t="inlineStr">
         <is>
-          <t>DateTimeEnd</t>
+          <t>ResultCode</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sluttidspunkt for anæstesi-ydelse</t>
+          <t xml:space="preserve">Hvor er patienten udskrevet til?
+</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t xml:space="preserve">Enums/Udfald: | "stamafdeling" | "hjemmet" | "sctid261554009" | "sctid310032008" | "andet_hospital" | "doed_i_observationsperioden" | </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="D5" t="inlineStr">
         <is>
+          <t>DateTimeStart</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Starttidspunkt for opvågning</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DateTimeEnd</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sluttidspunkt for opvågning</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>airway_plan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Plan for håndteringen af patientens luftveje</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MethodCode</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Array/List[str, Enum]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "sctid241700002" | "bgda60" | "sctid257268009" | "intubation_laryngoskopi" | "intubation_videolaryngoskopi" | "intubation_fleksibeltskop" | "intubation_anden_metode" | "tracheostomi_lokalanaestesi" | "intuberet_tracheostomeret" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>procedure_code</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" t="inlineStr">
+        <is>
           <t>ResultCode</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Array/List[String]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Activity</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>procedure_code</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="D7" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>relaxation_intubation</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Relaksation til intubation</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" t="inlineStr">
         <is>
           <t>ResultCode</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>airaway_plan</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Plan for håndteringen af patientens luftveje</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>MethodCode</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Array/List[str, Enum]</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "sctid241700002" | "bgda60" | "sctid257268009" | "intubation_laryngoskopi" | "intubation_videolaryngoskopi" | "intubation_anden_metode" | "tracheostomi_lokalanaestesi" | "intuberet_tracheostomeret" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>airway_management_last_attempt</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Sidste forsøg på håndtering af patientens luftveje</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>MethodCode</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Array/List[str, Enum]</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "sctid257268009" | "sctid78121007" | "videolaryngoskopi" | "fleksibelt_skopi" | "vaekning_af_patient" | "kgba00a" | "anden_teknik" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>SOR_anesthesia</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>SOR-koden for anæstesiafdelingen</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>OrganizationCode</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>intubation</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Typen af intubation</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ResultCode</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>str, Enum</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*Kun relevant hvis Luftvejshåndtering == Intubation*
-</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "laryngoskopi_max2" | "videolaryngoskopi_max2" | "fleksibel_skopi_max2" | "andet_max2" | "mere_end_3" | "intubation_opgivet" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>airway_management</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Håndtering af patientens luftveje</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>MethodCode</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Array/List[str, Enum]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "sctid41700002" | "bgda60" | "sctid257268009" | "intubation" | "kgbb00" | "andet" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>relaxation_intubation</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Relaksation til intubation</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>ResultCode</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t xml:space="preserve">*Kun relevant hvis Luftvejshåndtering = Intubation*
 </t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t xml:space="preserve">Enums/Udfald: | "vv00003" | "sctid22587006" | "sctid59594008" | </t>
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>intubation</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Typen af intubation</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ResultCode</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*Kun relevant hvis Luftvejshåndtering = Intubation*
+</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "laryngoskopi_max2" | "videolaryngoskopi_max2" | "fleksibel_skopi_max2" | "andet_max2" | "mere_end_3" | "intubation_opgivet" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SOR_anesthesia</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SOR-koden for anæstesiafdelingen</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>OrganizationCode</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>airway_management_last_attempt</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Sidste forsøg på håndtering af patientens luftveje</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MethodCode</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Array/List[str, Enum]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "sctid257268009" | "sctid78121007" | "videolaryngoskopi" | "fleksibelt_skopi" | "vaekning_af_patient" | "kgba00a" | "anden_teknik" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>anesthesia_service</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Typen af anæstesi og start-/sluttidspunkt.</t>
+        </is>
+      </c>
+    </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>anesthesia_observation</t>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>DateTimeStart</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Start tidspunkt for anæstesi-ydelse</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="D21" t="inlineStr">
         <is>
-          <t>OrganizationCode</t>
+          <t>DateTimeEnd</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Type af observationssted (opvågningssted)</t>
+          <t>Sluttidspunkt for anæstesi-ydelse</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "centralt_observationsafsnit" | "andet_observationsafsnit" | "operationsgangen" | "intensiv" | "sengeafdeling" | "skadestue_modtagelse" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -870,62 +891,46 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Array/List[String]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hvor er patienten udskrevet til?
-</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "stamafdeling" | "hjemmet" | "sctid261554009" | "sctid310032008" | "andet_hospital" | "doed_i_observationsperioden" | </t>
+          <t>**SKS-koder** skal starte med **NAA**</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>DateTimeStart</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Starttidspunkt for opvågning</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>airway_management</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Håndtering af patientens luftveje</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="D24" t="inlineStr">
         <is>
-          <t>DateTimeEnd</t>
+          <t>MethodCode</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Sluttidspunkt for opvågning</t>
+          <t>Array/List[str, Enum]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "sctid41700002" | "bgda60" | "sctid257268009" | "intubation" | "kgbb00" | "andet" | </t>
         </is>
       </c>
     </row>
@@ -937,12 +942,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pain_on_arrival</t>
+          <t>temperature</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Se webservice dokumentation.</t>
+          <t>Hvilken temperatur har patienten ved anæstesiens afslutning</t>
         </is>
       </c>
     </row>
@@ -954,17 +959,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
+          <t>Float</t>
         </is>
       </c>
     </row>
@@ -976,24 +971,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>temperature</t>
+          <t>observation_complications</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Hvilken temperatur har patienten ved anæstesiens afslutning</t>
+          <t>Komplikationer opstået under opvågningen</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="D28" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>ResultCode</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Float</t>
+          <t>Array/List[str, Enum]</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "anafylaktisk_reaktion_shock" | "aspiration" | "durapunktur_accidentel" | "di46" | "huskeanaestesi" | "neuromuskulaer_blokade_forlaenget_virkning" | "dt884a" | "mors_uventet" | </t>
         </is>
       </c>
     </row>
@@ -1039,24 +1039,24 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>nausea_at_discharge</t>
+          <t>best_achieved_laryngoscopy_grade</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Se webservice dokumentation.</t>
+          <t>Bedst opnåede laryngoskopigrad</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="D32" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>ResultCode</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
+          <t xml:space="preserve">Enums/Udfald: | "grad_1" | "grad_2" | "grad_3" | "grad_4" | </t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>blockade_sufficiency</t>
+          <t>pain_at_discharge</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1124,17 +1124,22 @@
     <row r="36">
       <c r="D36" t="inlineStr">
         <is>
-          <t>ResultCode</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "vv00002" | "vv00003" | </t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
         </is>
       </c>
     </row>
@@ -1146,12 +1151,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>best_achieved_laryngoscopy_grade</t>
+          <t>blockade_sufficiency</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Bedst opnåede laryngoskopigrad</t>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
     </row>
@@ -1166,14 +1171,9 @@
           <t>str, Enum</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "grad_1" | "grad_2" | "grad_3" | "grad_4" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "vv00002" | "vv00003" | </t>
         </is>
       </c>
     </row>
@@ -1225,29 +1225,34 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>observation_complications</t>
+          <t>nausea_at_discharge</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Komplikationer opstået under opvågningen</t>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="D42" t="inlineStr">
         <is>
-          <t>ResultCode</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Array/List[str, Enum]</t>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "anafylaktisk_reaktion_shock" | "aspiration" | "durapunktur_accidentel" | "di46" | "huskeanaestesi" | "neuromuskulaer_blokade_forlaenget_virkning" | "dt884a" | "mors_uventet" | </t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
         </is>
       </c>
     </row>
@@ -1259,34 +1264,29 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pain_at_discharge</t>
+          <t>anesthesia_prioritization</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Se webservice dokumentation.</t>
+          <t>Hvor akut var anæstesien? Vurderet ved prætilsynet.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="D44" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>ResultCode</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
+          <t xml:space="preserve">Enums/Udfald: | "sctid103390000" | "fremskyndet" | "hastende" | "livstruende" | </t>
         </is>
       </c>
     </row>
@@ -1298,29 +1298,34 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>anesthesia_prioritization</t>
+          <t>pain_on_arrival</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Hvor akut var anæstesien? Vurderet ved prætilsynet.</t>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="D46" t="inlineStr">
         <is>
-          <t>ResultCode</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "sctid103390000" | "fremskyndet" | "hastende" | "livstruende" | </t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
         </is>
       </c>
     </row>

--- a/dad5_anaestesi_v100_export.xlsx
+++ b/dad5_anaestesi_v100_export.xlsx
@@ -493,410 +493,410 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>anesthesia_observation</t>
+          <t>procedure_code</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="D3" t="inlineStr">
         <is>
+          <t>ResultCode</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>relaxation_intubation</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Relaksation til intubation</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ResultCode</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*Kun relevant hvis Luftvejshåndtering = Intubation*
+</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "vv00003" | "sctid22587006" | "sctid59594008" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>airway_plan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Plan for håndteringen af patientens luftveje</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>MethodCode</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Array/List[str, Enum]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "sctid241700002" | "bgda60" | "sctid257268009" | "intubation_laryngoskopi" | "intubation_videolaryngoskopi" | "intubation_fleksibelt_skop" | "intubation_anden_metode" | "tracheostomi_lokalanaestesi" | "intuberet_tracheostomeret" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>airway_management_last_attempt</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Sidste forsøg på håndtering af patientens luftveje</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>MethodCode</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Array/List[str, Enum]</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "sctid257268009" | "sctid78121007" | "videolaryngoskopi" | "fleksibelt_skopi" | "vaekning_af_patient" | "kgba00a" | "anden_teknik" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>anesthesia_observation</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" t="inlineStr">
+        <is>
           <t>OrganizationCode</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>str, Enum</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Type af observationssted (opvågningssted)</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t xml:space="preserve">Enums/Udfald: | "centralt_observationsafsnit" | "andet_observationsafsnit" | "operationsgangen" | "intensiv" | "sengeafdeling" | "skadestue_modtagelse" | </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="D4" t="inlineStr">
+    <row r="12">
+      <c r="D12" t="inlineStr">
         <is>
           <t>ResultCode</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>str, Enum</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t xml:space="preserve">Hvor er patienten udskrevet til?
 </t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t xml:space="preserve">Enums/Udfald: | "stamafdeling" | "hjemmet" | "sctid261554009" | "sctid310032008" | "andet_hospital" | "doed_i_observationsperioden" | </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="D5" t="inlineStr">
+    <row r="13">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>DateTimeEnd</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sluttidspunkt for opvågning</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" t="inlineStr">
         <is>
           <t>DateTimeStart</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>str</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Starttidspunkt for opvågning</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="D6" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SOR_anesthesia</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SOR-koden for anæstesiafdelingen</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>OrganizationCode</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>anesthesia_service</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Typen af anæstesi og start-/sluttidspunkt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" t="inlineStr">
         <is>
           <t>DateTimeEnd</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>str</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Sluttidspunkt for opvågning</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Sluttidspunkt for anæstesi-ydelse</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>DateTimeStart</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Start tidspunkt for anæstesi-ydelse</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ResultCode</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Array/List[String]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>**SKS-koder** skal starte med **NAA**</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>Activity</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>airway_plan</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Plan for håndteringen af patientens luftveje</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>MethodCode</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Array/List[str, Enum]</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "sctid241700002" | "bgda60" | "sctid257268009" | "intubation_laryngoskopi" | "intubation_videolaryngoskopi" | "intubation_fleksibeltskop" | "intubation_anden_metode" | "tracheostomi_lokalanaestesi" | "intuberet_tracheostomeret" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>procedure_code</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="D10" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>intubation</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Typen af intubation</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="D22" t="inlineStr">
         <is>
           <t>ResultCode</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>relaxation_intubation</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Relaksation til intubation</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ResultCode</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>str, Enum</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t xml:space="preserve">*Kun relevant hvis Luftvejshåndtering = Intubation*
 </t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "vv00003" | "sctid22587006" | "sctid59594008" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>intubation</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Typen af intubation</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ResultCode</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*Kun relevant hvis Luftvejshåndtering = Intubation*
-</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t xml:space="preserve">Enums/Udfald: | "laryngoskopi_max2" | "videolaryngoskopi_max2" | "fleksibel_skopi_max2" | "andet_max2" | "mere_end_3" | "intubation_opgivet" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>SOR_anesthesia</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>SOR-koden for anæstesiafdelingen</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>OrganizationCode</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>airway_management_last_attempt</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Sidste forsøg på håndtering af patientens luftveje</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>MethodCode</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Array/List[str, Enum]</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "sctid257268009" | "sctid78121007" | "videolaryngoskopi" | "fleksibelt_skopi" | "vaekning_af_patient" | "kgba00a" | "anden_teknik" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>anesthesia_service</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Typen af anæstesi og start-/sluttidspunkt.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>DateTimeStart</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Start tidspunkt for anæstesi-ydelse</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>DateTimeEnd</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Sluttidspunkt for anæstesi-ydelse</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>ResultCode</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Array/List[String]</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>**SKS-koder** skal starte med **NAA**</t>
         </is>
       </c>
     </row>
@@ -942,24 +942,34 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>temperature</t>
+          <t>best_achieved_laryngoscopy_grade</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Hvilken temperatur har patienten ved anæstesiens afslutning</t>
+          <t>Bedst opnåede laryngoskopigrad</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="D26" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>ResultCode</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Float</t>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "grad_1" | "grad_2" | "grad_3" | "grad_4" | </t>
         </is>
       </c>
     </row>
@@ -971,29 +981,34 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>observation_complications</t>
+          <t>pain_at_discharge</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Komplikationer opstået under opvågningen</t>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="D28" t="inlineStr">
         <is>
-          <t>ResultCode</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Array/List[str, Enum]</t>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "anafylaktisk_reaktion_shock" | "aspiration" | "durapunktur_accidentel" | "di46" | "huskeanaestesi" | "neuromuskulaer_blokade_forlaenget_virkning" | "dt884a" | "mors_uventet" | </t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
         </is>
       </c>
     </row>
@@ -1005,29 +1020,34 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ASA_score</t>
+          <t>nausea_at_discharge</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Patientens ASA-score</t>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="D30" t="inlineStr">
         <is>
-          <t>ResultCode</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "asa_i" | "asa_ii" | "asa_iii" | "asa_iv" | "asa_v" | "asa_vi" | </t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
         </is>
       </c>
     </row>
@@ -1039,24 +1059,25 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>best_achieved_laryngoscopy_grade</t>
+          <t>nausea_on_arrival</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Bedst opnåede laryngoskopigrad</t>
+          <t xml:space="preserve">Kvalme-score mindre end 15 minutter efter ankomst til opvågningen
+</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="D32" t="inlineStr">
         <is>
-          <t>ResultCode</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1066,7 +1087,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "grad_1" | "grad_2" | "grad_3" | "grad_4" | </t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1099,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>anesthesia_complications</t>
+          <t>observation_complications</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Komplikationer opstået under anæstesien</t>
+          <t>Komplikationer opstået under opvågningen</t>
         </is>
       </c>
     </row>
@@ -1100,7 +1121,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "anafylaktisk_reaktion_shock" | "anaestesi_afbrudt" | "aspiration" | "durapunktur_accidentel" | "di46" | "huskeanaestesi" | "dt883" | "neuromuskulaer_blokade_forlaenget_virkning" | "dt884a" | "mors_uventet" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "anafylaktisk_reaktion_shock" | "aspiration" | "durapunktur_accidentel" | "di46" | "huskeanaestesi" | "neuromuskulaer_blokade_forlaenget_virkning" | "dt884a" | "mors_uventet" | </t>
         </is>
       </c>
     </row>
@@ -1112,12 +1133,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pain_at_discharge</t>
+          <t>temperature</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Se webservice dokumentation.</t>
+          <t>Hvilken temperatur har patienten ved anæstesiens afslutning</t>
         </is>
       </c>
     </row>
@@ -1129,17 +1150,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
+          <t>Float</t>
         </is>
       </c>
     </row>
@@ -1151,12 +1162,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>blockade_sufficiency</t>
+          <t>anesthesia_complications</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Se webservice dokumentation.</t>
+          <t>Komplikationer opstået under anæstesien</t>
         </is>
       </c>
     </row>
@@ -1168,12 +1179,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Array/List[str, Enum]</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "vv00002" | "vv00003" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "anafylaktisk_reaktion_shock" | "anaestesi_afbrudt" | "aspiration" | "durapunktur_accidentel" | "di46" | "huskeanaestesi" | "dt883" | "neuromuskulaer_blokade_forlaenget_virkning" | "dt884a" | "mors_uventet" | </t>
         </is>
       </c>
     </row>
@@ -1185,35 +1196,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>nausea_on_arrival</t>
+          <t>anesthesia_prioritization</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kvalme-score mindre end 15 minutter efter ankomst til opvågningen
-</t>
+          <t>Hvor akut var anæstesien? Vurderet ved prætilsynet.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="D40" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>ResultCode</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
+          <t xml:space="preserve">Enums/Udfald: | "sctid103390000" | "fremskyndet" | "hastende" | "livstruende" | </t>
         </is>
       </c>
     </row>
@@ -1225,34 +1230,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>nausea_at_discharge</t>
+          <t>ASA_score</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Se webservice dokumentation.</t>
+          <t>Patientens ASA-score</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="D42" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>ResultCode</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
+          <t xml:space="preserve">Enums/Udfald: | "asa_i" | "asa_ii" | "asa_iii" | "asa_iv" | "asa_v" | "asa_vi" | </t>
         </is>
       </c>
     </row>
@@ -1264,12 +1264,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>anesthesia_prioritization</t>
+          <t>blockade_sufficiency</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Hvor akut var anæstesien? Vurderet ved prætilsynet.</t>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "sctid103390000" | "fremskyndet" | "hastende" | "livstruende" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "vv00002" | "vv00003" | </t>
         </is>
       </c>
     </row>

--- a/dad5_anaestesi_v100_export.xlsx
+++ b/dad5_anaestesi_v100_export.xlsx
@@ -493,176 +493,207 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>procedure_code</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t>anesthesia_observation</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="D3" t="inlineStr">
         <is>
+          <t>OrganizationCode</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Type af observationssted (opvågningssted)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "centralt_observationsafsnit" | "andet_observationsafsnit" | "operationsgangen" | "intensiv" | "sengeafdeling" | "skadestue_modtagelse" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" t="inlineStr">
+        <is>
           <t>ResultCode</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>relaxation_intubation</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Relaksation til intubation</t>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hvor er patienten udskrevet til?
+</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "stamafdeling" | "hjemmet" | "sctid261554009" | "sctid310032008" | "andet_hospital" | "doed_i_observationsperioden" | </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="D5" t="inlineStr">
         <is>
+          <t>DateTimeEnd</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sluttidspunkt for opvågning</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DateTimeStart</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Starttidspunkt for opvågning</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>relaxation_intubation</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Relaksation til intubation</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" t="inlineStr">
+        <is>
           <t>ResultCode</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>str, Enum</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t xml:space="preserve">*Kun relevant hvis Luftvejshåndtering = Intubation*
 </t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t xml:space="preserve">Enums/Udfald: | "vv00003" | "sctid22587006" | "sctid59594008" | </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Activity</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>airway_plan</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Plan for håndteringen af patientens luftveje</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>MethodCode</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Array/List[str, Enum]</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "sctid241700002" | "bgda60" | "sctid257268009" | "intubation_laryngoskopi" | "intubation_videolaryngoskopi" | "intubation_fleksibelt_skop" | "intubation_anden_metode" | "tracheostomi_lokalanaestesi" | "intuberet_tracheostomeret" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>airway_management_last_attempt</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Sidste forsøg på håndtering af patientens luftveje</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>MethodCode</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Array/List[str, Enum]</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "sctid257268009" | "sctid78121007" | "videolaryngoskopi" | "fleksibelt_skopi" | "vaekning_af_patient" | "kgba00a" | "anden_teknik" | </t>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>anesthesia_service</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Typen af anæstesi og start-/sluttidspunkt.</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>anesthesia_observation</t>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>DateTimeEnd</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sluttidspunkt for anæstesi-ydelse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="D11" t="inlineStr">
         <is>
-          <t>OrganizationCode</t>
+          <t>DateTimeStart</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Type af observationssted (opvågningssted)</t>
+          <t>Start tidspunkt for anæstesi-ydelse</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "centralt_observationsafsnit" | "andet_observationsafsnit" | "operationsgangen" | "intensiv" | "sengeafdeling" | "skadestue_modtagelse" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -674,62 +705,51 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Array/List[String]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hvor er patienten udskrevet til?
-</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "stamafdeling" | "hjemmet" | "sctid261554009" | "sctid310032008" | "andet_hospital" | "doed_i_observationsperioden" | </t>
+          <t>**SKS-koder** skal starte med **NAA**</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>DateTimeEnd</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Sluttidspunkt for opvågning</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SOR_anesthesia</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SOR-koden for anæstesiafdelingen</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="D14" t="inlineStr">
         <is>
-          <t>DateTimeStart</t>
+          <t>OrganizationCode</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Starttidspunkt for opvågning</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -741,12 +761,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SOR_anesthesia</t>
+          <t>procedure_code</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SOR-koden for anæstesiafdelingen</t>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -758,7 +778,7 @@
     <row r="16">
       <c r="D16" t="inlineStr">
         <is>
-          <t>OrganizationCode</t>
+          <t>ResultCode</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -780,83 +800,63 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>anesthesia_service</t>
+          <t>airway_management_last_attempt</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Typen af anæstesi og start-/sluttidspunkt.</t>
+          <t>Sidste forsøg på håndtering af patientens luftveje</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="D18" t="inlineStr">
         <is>
-          <t>DateTimeEnd</t>
+          <t>MethodCode</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Sluttidspunkt for anæstesi-ydelse</t>
+          <t>Array/List[str, Enum]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t xml:space="preserve">Enums/Udfald: | "sctid257268009" | "sctid78121007" | "videolaryngoskopi" | "fleksibelt_skopi" | "vaekning_af_patient" | "kgba00a" | "anden_teknik" | </t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>DateTimeStart</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Start tidspunkt for anæstesi-ydelse</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>True</t>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>airway_plan</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Plan for håndteringen af patientens luftveje</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="D20" t="inlineStr">
         <is>
-          <t>ResultCode</t>
+          <t>MethodCode</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Array/List[String]</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>**SKS-koder** skal starte med **NAA**</t>
+          <t>Array/List[str, Enum]</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "sctid241700002" | "bgda60" | "sctid257268009" | "intubation_laryngoskopi" | "intubation_videolaryngoskopi" | "intubation_fleksibelt_skop" | "intubation_anden_metode" | "tracheostomi_lokalanaestesi" | "intuberet_tracheostomeret" | </t>
         </is>
       </c>
     </row>
@@ -942,12 +942,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>best_achieved_laryngoscopy_grade</t>
+          <t>observation_complications</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Bedst opnåede laryngoskopigrad</t>
+          <t>Komplikationer opstået under opvågningen</t>
         </is>
       </c>
     </row>
@@ -959,17 +959,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
+          <t>Array/List[str, Enum]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "grad_1" | "grad_2" | "grad_3" | "grad_4" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "anafylaktisk_reaktion_shock" | "aspiration" | "durapunktur_accidentel" | "di46" | "huskeanaestesi" | "neuromuskulaer_blokade_forlaenget_virkning" | "dt884a" | "mors_uventet" | </t>
         </is>
       </c>
     </row>
@@ -981,34 +976,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pain_at_discharge</t>
+          <t>anesthesia_prioritization</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Se webservice dokumentation.</t>
+          <t>Hvor akut var anæstesien? Vurderet ved prætilsynet.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="D28" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>ResultCode</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
+          <t xml:space="preserve">Enums/Udfald: | "sctid103390000" | "fremskyndet" | "hastende" | "livstruende" | </t>
         </is>
       </c>
     </row>
@@ -1020,7 +1010,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>nausea_at_discharge</t>
+          <t>pain_on_arrival</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1059,234 +1049,249 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>best_achieved_laryngoscopy_grade</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Bedst opnåede laryngoskopigrad</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ResultCode</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "grad_1" | "grad_2" | "grad_3" | "grad_4" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>nausea_at_discharge</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>temperature</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Hvilken temperatur har patienten ved anæstesiens afslutning</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Float</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>pain_at_discharge</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>anesthesia_complications</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Komplikationer opstået under anæstesien</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>ResultCode</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Array/List[str, Enum]</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "anafylaktisk_reaktion_shock" | "anaestesi_afbrudt" | "aspiration" | "durapunktur_accidentel" | "di46" | "huskeanaestesi" | "dt883" | "neuromuskulaer_blokade_forlaenget_virkning" | "dt884a" | "mors_uventet" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ASA_score</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Patientens ASA-score</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>ResultCode</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "asa_i" | "asa_ii" | "asa_iii" | "asa_iv" | "asa_v" | "asa_vi" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>nausea_on_arrival</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">Kvalme-score mindre end 15 minutter efter ankomst til opvågningen
 </t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>observation_complications</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Komplikationer opstået under opvågningen</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>ResultCode</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Array/List[str, Enum]</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "anafylaktisk_reaktion_shock" | "aspiration" | "durapunktur_accidentel" | "di46" | "huskeanaestesi" | "neuromuskulaer_blokade_forlaenget_virkning" | "dt884a" | "mors_uventet" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>temperature</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Hvilken temperatur har patienten ved anæstesiens afslutning</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Float</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>anesthesia_complications</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Komplikationer opstået under anæstesien</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>ResultCode</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Array/List[str, Enum]</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "anafylaktisk_reaktion_shock" | "anaestesi_afbrudt" | "aspiration" | "durapunktur_accidentel" | "di46" | "huskeanaestesi" | "dt883" | "neuromuskulaer_blokade_forlaenget_virkning" | "dt884a" | "mors_uventet" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>anesthesia_prioritization</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Hvor akut var anæstesien? Vurderet ved prætilsynet.</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>ResultCode</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "sctid103390000" | "fremskyndet" | "hastende" | "livstruende" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>ASA_score</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Patientens ASA-score</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>ResultCode</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "asa_i" | "asa_ii" | "asa_iii" | "asa_iv" | "asa_v" | "asa_vi" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>blockade_sufficiency</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
     <row r="44">
       <c r="D44" t="inlineStr">
         <is>
-          <t>ResultCode</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "vv00002" | "vv00003" | </t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1303,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pain_on_arrival</t>
+          <t>blockade_sufficiency</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1310,22 +1315,17 @@
     <row r="46">
       <c r="D46" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>ResultCode</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
+          <t xml:space="preserve">Enums/Udfald: | "vv00002" | "vv00003" | </t>
         </is>
       </c>
     </row>
